--- a/public/pettycashfiles/PC002.xlsx
+++ b/public/pettycashfiles/PC002.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,61 +12,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>Ply Wood</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Nos</t>
-  </si>
-  <si>
-    <t>{"size":"1800*900","thickness":"6","grade":"MR"}</t>
-  </si>
-  <si>
-    <t>Laminate</t>
-  </si>
-  <si>
-    <t>Merino Lam</t>
-  </si>
-  <si>
-    <t>{"size":"1800 * 1200","thickness":"0.8 mm","grade":"Glossy"}</t>
-  </si>
-  <si>
-    <t>FS</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>{"size":"150mm","thickness":"4 mm","grade":"Heavy"}</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Red Bricks</t>
-  </si>
-  <si>
-    <t>Locally Sourced</t>
-  </si>
-  <si>
-    <t>{"size":"75mm x 100mm x 225mm","thickness":"100 mm"}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+  <si>
+    <t>EMPL002</t>
+  </si>
+  <si>
+    <t>Druva Kumar JS</t>
+  </si>
+  <si>
+    <t>druva@gmail.com</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>druva</t>
+  </si>
+  <si>
+    <t>EMPL003</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>abishek@gmail,com</t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>abhishek</t>
+  </si>
+  <si>
+    <t>EMPL004</t>
+  </si>
+  <si>
+    <t>janaki</t>
+  </si>
+  <si>
+    <t>janaki@gmail.com</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>EMPL005</t>
+  </si>
+  <si>
+    <t>shashi</t>
+  </si>
+  <si>
+    <t>shashi@gmail.com</t>
+  </si>
+  <si>
+    <t>procurement</t>
+  </si>
+  <si>
+    <t>EMPL006</t>
+  </si>
+  <si>
+    <t>Susraksah</t>
+  </si>
+  <si>
+    <t>suraksha@gmail.com</t>
+  </si>
+  <si>
+    <t>finance</t>
+  </si>
+  <si>
+    <t>suraksha</t>
+  </si>
+  <si>
+    <t>EMPL007</t>
+  </si>
+  <si>
+    <t>Kubulu</t>
+  </si>
+  <si>
+    <t>kubulu@gmail.com</t>
+  </si>
+  <si>
+    <t>kubulu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -76,6 +110,17 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,12 +137,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -108,6 +159,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -314,76 +369,143 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="5" max="5" width="63.25"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2">
+        <v>8.792422947E9</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7.89456123E9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8.792422946E9</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8.792422945E9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8.792422944E9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C1"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2">
+        <v>8.792422943E9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
